--- a/PacketStructure.xlsx
+++ b/PacketStructure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Coordinator</t>
   </si>
@@ -102,7 +102,64 @@
     <t>Checksum</t>
   </si>
   <si>
-    <t>Source Network Address</t>
+    <t>16 bit Source Network Address</t>
+  </si>
+  <si>
+    <t>0x1e</t>
+  </si>
+  <si>
+    <t>0xff</t>
+  </si>
+  <si>
+    <t>Receive Otions (0x01 packet was acknowledged) (0x02 Packet was a broadcast Packet)</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>IO Data Sample RX Indicator (API 2)</t>
+  </si>
+  <si>
+    <t>7E 00 12 92 00 7D 33 A2 00 40 8D C4 C8 FF FE 01 01 00 00 01 03 FF 5D</t>
+  </si>
+  <si>
+    <t>Start delimiter: 7E</t>
+  </si>
+  <si>
+    <t>Length: 00 12 (18)</t>
+  </si>
+  <si>
+    <t>Frame type: 92 (IO Data Sample RX Indicator)</t>
+  </si>
+  <si>
+    <t>64-bit source address: 00 13 A2 00 40 8D C4 C8</t>
+  </si>
+  <si>
+    <t>16-bit source address: FF FE</t>
+  </si>
+  <si>
+    <t>Receive options: 01</t>
+  </si>
+  <si>
+    <t>Number of samples: 01</t>
+  </si>
+  <si>
+    <t>Digital channel mask: 00 00</t>
+  </si>
+  <si>
+    <t>Analog channel mask: 01</t>
+  </si>
+  <si>
+    <t>DIO0/AD0 analog value: 03 FF (1023)</t>
+  </si>
+  <si>
+    <t>Checksum: 5D</t>
+  </si>
+  <si>
+    <t>Analog Value (axis 1)</t>
+  </si>
+  <si>
+    <t>Analog Value (axis 2)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -276,6 +339,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,19 +867,42 @@
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19">
         <v>13</v>
       </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
         <v>14</v>
       </c>
+      <c r="B20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
@@ -834,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25">
         <v>19</v>
       </c>
@@ -843,26 +933,154 @@
       <c r="A26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27">
         <v>21</v>
       </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29">
         <v>23</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
